--- a/Material_type_import.xlsx
+++ b/Material_type_import.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comcuru\Desktop\KT7_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comcuru\Desktop\KT7_2_Gaidarzhi_Vadim_ISP431\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="765" yWindow="765" windowWidth="22110" windowHeight="10110" tabRatio="949"/>
+    <workbookView xWindow="765" yWindow="765" windowWidth="22110" windowHeight="10110" tabRatio="949" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Material_type_import" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="99">
   <si>
     <t>Тип материала</t>
   </si>
@@ -737,7 +737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1060,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,8 +1595,8 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f>LOOKUP(C2,PartnerType!$B$2:$B$6,PartnerType!$A$2:$A$6)</f>
-        <v>2</v>
+        <f>LOOKUP(C2,PartnerType!$B$2:$B$5,PartnerType!$A$2:$A$5)</f>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -1659,8 +1659,8 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f>LOOKUP(C3,PartnerType!$B$2:$B$6,PartnerType!$A$2:$A$6)</f>
-        <v>2</v>
+        <f>LOOKUP(C3,PartnerType!$B$2:$B$5,PartnerType!$A$2:$A$5)</f>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -1723,8 +1723,8 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f>LOOKUP(C4,PartnerType!$B$2:$B$6,PartnerType!$A$2:$A$6)</f>
-        <v>4</v>
+        <f>LOOKUP(C4,PartnerType!$B$2:$B$5,PartnerType!$A$2:$A$5)</f>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -1787,8 +1787,8 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f>LOOKUP(C5,PartnerType!$B$2:$B$6,PartnerType!$A$2:$A$6)</f>
-        <v>3</v>
+        <f>LOOKUP(C5,PartnerType!$B$2:$B$5,PartnerType!$A$2:$A$5)</f>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
@@ -1851,8 +1851,8 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f>LOOKUP(C6,PartnerType!$B$2:$B$6,PartnerType!$A$2:$A$6)</f>
-        <v>5</v>
+        <f>LOOKUP(C6,PartnerType!$B$2:$B$5,PartnerType!$A$2:$A$5)</f>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -2322,10 +2322,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+      <selection activeCell="B5" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2354,7 +2354,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2362,7 +2362,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2370,14 +2370,6 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
         <v>28</v>
       </c>
     </row>
